--- a/other/Протокол 101.xlsx
+++ b/other/Протокол 101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="312">
   <si>
     <t>№101</t>
   </si>
@@ -931,6 +931,27 @@
   </si>
   <si>
     <t>Флаг наличия принятой команды</t>
+  </si>
+  <si>
+    <t>Передатчик режим Выведен</t>
+  </si>
+  <si>
+    <t>Передатчик режим Введен</t>
+  </si>
+  <si>
+    <t>Передатчик режим Тест</t>
+  </si>
+  <si>
+    <t>Приемник режим Готов</t>
+  </si>
+  <si>
+    <t>Приемник режим Введен</t>
+  </si>
+  <si>
+    <t>Приемник режим Тест</t>
+  </si>
+  <si>
+    <t>Приемник режим Выведен</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,7 +2132,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <f t="shared" si="3"/>
         <v>2204</v>
@@ -2129,14 +2150,17 @@
       <c r="E49" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f>A2+301</f>
         <v>2301</v>
@@ -2152,7 +2176,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <f>A51+1</f>
         <v>2302</v>
@@ -2168,7 +2192,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f t="shared" ref="A53:A82" si="5">A52+1</f>
         <v>2303</v>
@@ -2184,7 +2208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <f t="shared" si="5"/>
         <v>2304</v>
@@ -2200,7 +2224,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <f t="shared" si="5"/>
         <v>2305</v>
@@ -2216,7 +2240,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <f t="shared" si="5"/>
         <v>2306</v>
@@ -2232,7 +2256,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <f t="shared" si="5"/>
         <v>2307</v>
@@ -2248,7 +2272,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <f t="shared" si="5"/>
         <v>2308</v>
@@ -2264,7 +2288,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <f t="shared" si="5"/>
         <v>2309</v>
@@ -2280,7 +2304,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <f t="shared" si="5"/>
         <v>2310</v>
@@ -2296,7 +2320,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <f t="shared" si="5"/>
         <v>2311</v>
@@ -2312,7 +2336,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <f t="shared" si="5"/>
         <v>2312</v>
@@ -2328,7 +2352,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <f t="shared" si="5"/>
         <v>2313</v>
@@ -2344,7 +2368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <f t="shared" si="5"/>
         <v>2314</v>
@@ -3223,14 +3247,14 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <f t="shared" ref="A120:A149" si="9">A119+1</f>
+        <f t="shared" ref="A120:A148" si="9">A119+1</f>
         <v>2452</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C120" s="3">
-        <f t="shared" ref="C120:C149" si="10">C119+1</f>
+        <f t="shared" ref="C120:C148" si="10">C119+1</f>
         <v>452</v>
       </c>
       <c r="D120" s="4" t="s">
@@ -3687,1857 +3711,1913 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <f t="shared" si="9"/>
+        <f>A148+1</f>
         <v>2481</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C149" s="3">
-        <f t="shared" si="10"/>
+        <f>C148+1</f>
         <v>481</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="7">
+    <row r="150" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>2485</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" s="3">
+        <v>485</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>2486</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" s="3">
+        <v>486</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>2487</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" s="3">
+        <v>487</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
         <f>A2+500</f>
         <v>2500</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B155" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C155" s="7">
         <f>C2+500</f>
         <v>500</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D155" s="8" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="7">
-        <f>A151+1</f>
-        <v>2501</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C152" s="3">
-        <f>C151+1</f>
-        <v>501</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="7">
-        <f t="shared" ref="A153:A183" si="11">A152+1</f>
-        <v>2502</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C153" s="3">
-        <f t="shared" ref="C153:C183" si="12">C152+1</f>
-        <v>502</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
-        <f t="shared" si="11"/>
-        <v>2503</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C154" s="3">
-        <f t="shared" si="12"/>
-        <v>503</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="7">
-        <f t="shared" si="11"/>
-        <v>2504</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C155" s="3">
-        <f t="shared" si="12"/>
-        <v>504</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
-        <f t="shared" si="11"/>
-        <v>2505</v>
+        <f>A155+1</f>
+        <v>2501</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C156" s="3">
-        <f t="shared" si="12"/>
-        <v>505</v>
+        <f>C155+1</f>
+        <v>501</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
-        <f t="shared" si="11"/>
-        <v>2506</v>
+        <f t="shared" ref="A157:A187" si="11">A156+1</f>
+        <v>2502</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C157" s="3">
-        <f t="shared" si="12"/>
-        <v>506</v>
+        <f t="shared" ref="C157:C187" si="12">C156+1</f>
+        <v>502</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <f t="shared" si="11"/>
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C158" s="3">
         <f t="shared" si="12"/>
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <f t="shared" si="11"/>
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C159" s="3">
         <f t="shared" si="12"/>
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <f t="shared" si="11"/>
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C160" s="3">
         <f t="shared" si="12"/>
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <f t="shared" si="11"/>
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C161" s="3">
         <f t="shared" si="12"/>
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <f t="shared" si="11"/>
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C162" s="3">
         <f t="shared" si="12"/>
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <f t="shared" si="11"/>
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C163" s="3">
         <f t="shared" si="12"/>
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <f t="shared" si="11"/>
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C164" s="3">
         <f t="shared" si="12"/>
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <f t="shared" si="11"/>
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C165" s="3">
         <f t="shared" si="12"/>
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <f t="shared" si="11"/>
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C166" s="3">
         <f t="shared" si="12"/>
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <f t="shared" si="11"/>
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C167" s="3">
         <f t="shared" si="12"/>
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <f t="shared" si="11"/>
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C168" s="3">
         <f t="shared" si="12"/>
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <f t="shared" si="11"/>
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C169" s="3">
         <f t="shared" si="12"/>
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <f t="shared" si="11"/>
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C170" s="3">
         <f t="shared" si="12"/>
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <f t="shared" si="11"/>
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C171" s="3">
         <f t="shared" si="12"/>
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <f t="shared" si="11"/>
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C172" s="3">
         <f t="shared" si="12"/>
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <f t="shared" si="11"/>
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C173" s="3">
         <f t="shared" si="12"/>
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <f t="shared" si="11"/>
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C174" s="3">
         <f t="shared" si="12"/>
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <f t="shared" si="11"/>
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C175" s="3">
         <f t="shared" si="12"/>
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <f t="shared" si="11"/>
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C176" s="3">
         <f t="shared" si="12"/>
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <f t="shared" si="11"/>
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C177" s="3">
         <f t="shared" si="12"/>
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <f t="shared" si="11"/>
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C178" s="3">
         <f t="shared" si="12"/>
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <f t="shared" si="11"/>
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C179" s="3">
         <f t="shared" si="12"/>
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <f t="shared" si="11"/>
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C180" s="3">
         <f t="shared" si="12"/>
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <f t="shared" si="11"/>
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C181" s="3">
         <f t="shared" si="12"/>
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <f t="shared" si="11"/>
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C182" s="3">
         <f t="shared" si="12"/>
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <f t="shared" si="11"/>
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C183" s="3">
         <f t="shared" si="12"/>
+        <v>528</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="7">
+        <f t="shared" si="11"/>
+        <v>2529</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C184" s="3">
+        <f t="shared" si="12"/>
+        <v>529</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="7">
+        <f t="shared" si="11"/>
+        <v>2530</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C185" s="3">
+        <f t="shared" si="12"/>
+        <v>530</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <f t="shared" si="11"/>
+        <v>2531</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C186" s="3">
+        <f t="shared" si="12"/>
+        <v>531</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="7">
+        <f t="shared" si="11"/>
+        <v>2532</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C187" s="3">
+        <f t="shared" si="12"/>
         <v>532</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D187" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="8"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
-        <f>A151+50</f>
-        <v>2550</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C185" s="3">
-        <f>C151+50</f>
-        <v>550</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
-        <f>A185+1</f>
-        <v>2551</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C186" s="3">
-        <f>C185+1</f>
-        <v>551</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
-        <f t="shared" ref="A187:A216" si="13">A186+1</f>
-        <v>2552</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C187" s="3">
-        <f t="shared" ref="C187:C216" si="14">C186+1</f>
-        <v>552</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
-        <f t="shared" si="13"/>
-        <v>2553</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C188" s="3">
-        <f t="shared" si="14"/>
-        <v>553</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="A188" s="7"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="8"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <f t="shared" si="13"/>
-        <v>2554</v>
+        <f>A155+50</f>
+        <v>2550</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C189" s="3">
-        <f t="shared" si="14"/>
-        <v>554</v>
+        <f>C155+50</f>
+        <v>550</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <f t="shared" si="13"/>
-        <v>2555</v>
+        <f>A189+1</f>
+        <v>2551</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C190" s="3">
-        <f t="shared" si="14"/>
-        <v>555</v>
+        <f>C189+1</f>
+        <v>551</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <f t="shared" si="13"/>
-        <v>2556</v>
+        <f t="shared" ref="A191:A220" si="13">A190+1</f>
+        <v>2552</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C191" s="3">
-        <f t="shared" si="14"/>
-        <v>556</v>
+        <f t="shared" ref="C191:C220" si="14">C190+1</f>
+        <v>552</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <f t="shared" si="13"/>
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C192" s="3">
         <f t="shared" si="14"/>
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <f t="shared" si="13"/>
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C193" s="3">
         <f t="shared" si="14"/>
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <f t="shared" si="13"/>
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C194" s="3">
         <f t="shared" si="14"/>
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <f t="shared" si="13"/>
-        <v>2560</v>
+        <v>2556</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C195" s="3">
         <f t="shared" si="14"/>
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <f t="shared" si="13"/>
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C196" s="3">
         <f t="shared" si="14"/>
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <f t="shared" si="13"/>
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C197" s="3">
         <f t="shared" si="14"/>
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <f t="shared" si="13"/>
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C198" s="3">
         <f t="shared" si="14"/>
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <f t="shared" si="13"/>
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C199" s="3">
         <f t="shared" si="14"/>
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <f t="shared" si="13"/>
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C200" s="3">
         <f t="shared" si="14"/>
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <f t="shared" si="13"/>
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C201" s="3">
         <f t="shared" si="14"/>
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <f t="shared" si="13"/>
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C202" s="3">
         <f t="shared" si="14"/>
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <f t="shared" si="13"/>
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C203" s="3">
         <f t="shared" si="14"/>
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <f t="shared" si="13"/>
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C204" s="3">
         <f t="shared" si="14"/>
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <f t="shared" si="13"/>
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C205" s="3">
         <f t="shared" si="14"/>
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <f t="shared" si="13"/>
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C206" s="3">
         <f t="shared" si="14"/>
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <f t="shared" si="13"/>
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C207" s="3">
         <f t="shared" si="14"/>
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <f t="shared" si="13"/>
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C208" s="3">
         <f t="shared" si="14"/>
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <f t="shared" si="13"/>
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C209" s="3">
         <f t="shared" si="14"/>
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <f t="shared" si="13"/>
-        <v>2575</v>
+        <v>2571</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C210" s="3">
         <f t="shared" si="14"/>
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <f t="shared" si="13"/>
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C211" s="3">
         <f t="shared" si="14"/>
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <f t="shared" si="13"/>
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C212" s="3">
         <f t="shared" si="14"/>
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <f t="shared" si="13"/>
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C213" s="3">
         <f t="shared" si="14"/>
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <f t="shared" si="13"/>
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C214" s="3">
         <f t="shared" si="14"/>
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <f t="shared" si="13"/>
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C215" s="3">
         <f t="shared" si="14"/>
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <f t="shared" si="13"/>
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C216" s="3">
         <f t="shared" si="14"/>
+        <v>577</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <f t="shared" si="13"/>
+        <v>2578</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C217" s="3">
+        <f t="shared" si="14"/>
+        <v>578</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <f t="shared" si="13"/>
+        <v>2579</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C218" s="3">
+        <f t="shared" si="14"/>
+        <v>579</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <f t="shared" si="13"/>
+        <v>2580</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C219" s="3">
+        <f t="shared" si="14"/>
+        <v>580</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <f t="shared" si="13"/>
+        <v>2581</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C220" s="3">
+        <f t="shared" si="14"/>
         <v>581</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D220" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="6"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="7">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="3"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>2585</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C222" s="3">
+        <v>585</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>2586</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C223" s="3">
+        <v>586</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>2587</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C224" s="3">
+        <v>587</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>2588</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C225" s="3">
+        <v>588</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="5"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="6"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="7">
         <f>A2+600</f>
         <v>2600</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B227" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C227" s="7">
         <f>C2+600</f>
         <v>600</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D227" s="8" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="7">
-        <f>A218+1</f>
-        <v>2601</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C219" s="3">
-        <f>C218+1</f>
-        <v>601</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="7">
-        <f t="shared" ref="A220:A250" si="15">A219+1</f>
-        <v>2602</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C220" s="3">
-        <f t="shared" ref="C220:C250" si="16">C219+1</f>
-        <v>602</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="7">
-        <f t="shared" si="15"/>
-        <v>2603</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C221" s="3">
-        <f t="shared" si="16"/>
-        <v>603</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="7">
-        <f t="shared" si="15"/>
-        <v>2604</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C222" s="3">
-        <f t="shared" si="16"/>
-        <v>604</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="7">
-        <f t="shared" si="15"/>
-        <v>2605</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C223" s="3">
-        <f t="shared" si="16"/>
-        <v>605</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="7">
-        <f t="shared" si="15"/>
-        <v>2606</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C224" s="3">
-        <f t="shared" si="16"/>
-        <v>606</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="7">
-        <f t="shared" si="15"/>
-        <v>2607</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C225" s="3">
-        <f t="shared" si="16"/>
-        <v>607</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="7">
-        <f t="shared" si="15"/>
-        <v>2608</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C226" s="3">
-        <f t="shared" si="16"/>
-        <v>608</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="7">
-        <f t="shared" si="15"/>
-        <v>2609</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C227" s="3">
-        <f t="shared" si="16"/>
-        <v>609</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
-        <f t="shared" si="15"/>
-        <v>2610</v>
+        <f>A227+1</f>
+        <v>2601</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C228" s="3">
-        <f t="shared" si="16"/>
-        <v>610</v>
+        <f>C227+1</f>
+        <v>601</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
-        <f t="shared" si="15"/>
-        <v>2611</v>
+        <f t="shared" ref="A229:A259" si="15">A228+1</f>
+        <v>2602</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C229" s="3">
-        <f t="shared" si="16"/>
-        <v>611</v>
+        <f t="shared" ref="C229:C259" si="16">C228+1</f>
+        <v>602</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <f t="shared" si="15"/>
-        <v>2612</v>
+        <v>2603</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C230" s="3">
         <f t="shared" si="16"/>
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <f t="shared" si="15"/>
-        <v>2613</v>
+        <v>2604</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C231" s="3">
         <f t="shared" si="16"/>
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <f t="shared" si="15"/>
-        <v>2614</v>
+        <v>2605</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C232" s="3">
         <f t="shared" si="16"/>
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <f t="shared" si="15"/>
-        <v>2615</v>
+        <v>2606</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C233" s="3">
         <f t="shared" si="16"/>
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <f t="shared" si="15"/>
-        <v>2616</v>
+        <v>2607</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C234" s="3">
         <f t="shared" si="16"/>
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <f t="shared" si="15"/>
-        <v>2617</v>
+        <v>2608</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C235" s="3">
         <f t="shared" si="16"/>
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <f t="shared" si="15"/>
-        <v>2618</v>
+        <v>2609</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C236" s="3">
         <f t="shared" si="16"/>
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <f t="shared" si="15"/>
-        <v>2619</v>
+        <v>2610</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C237" s="3">
         <f t="shared" si="16"/>
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <f t="shared" si="15"/>
-        <v>2620</v>
+        <v>2611</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C238" s="3">
         <f t="shared" si="16"/>
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <f t="shared" si="15"/>
-        <v>2621</v>
+        <v>2612</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C239" s="3">
         <f t="shared" si="16"/>
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <f t="shared" si="15"/>
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C240" s="3">
         <f t="shared" si="16"/>
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <f t="shared" si="15"/>
-        <v>2623</v>
+        <v>2614</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C241" s="3">
         <f t="shared" si="16"/>
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <f t="shared" si="15"/>
-        <v>2624</v>
+        <v>2615</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C242" s="3">
         <f t="shared" si="16"/>
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <f t="shared" si="15"/>
-        <v>2625</v>
+        <v>2616</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C243" s="3">
         <f t="shared" si="16"/>
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <f t="shared" si="15"/>
-        <v>2626</v>
+        <v>2617</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C244" s="3">
         <f t="shared" si="16"/>
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <f t="shared" si="15"/>
-        <v>2627</v>
+        <v>2618</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C245" s="3">
         <f t="shared" si="16"/>
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <f t="shared" si="15"/>
-        <v>2628</v>
+        <v>2619</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C246" s="3">
         <f t="shared" si="16"/>
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <f t="shared" si="15"/>
-        <v>2629</v>
+        <v>2620</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C247" s="3">
         <f t="shared" si="16"/>
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <f t="shared" si="15"/>
-        <v>2630</v>
+        <v>2621</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C248" s="3">
         <f t="shared" si="16"/>
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <f t="shared" si="15"/>
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C249" s="3">
         <f t="shared" si="16"/>
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <f t="shared" si="15"/>
-        <v>2632</v>
+        <v>2623</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C250" s="3">
         <f t="shared" si="16"/>
+        <v>623</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="7">
+        <f t="shared" si="15"/>
+        <v>2624</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C251" s="3">
+        <f t="shared" si="16"/>
+        <v>624</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="7">
+        <f t="shared" si="15"/>
+        <v>2625</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C252" s="3">
+        <f t="shared" si="16"/>
+        <v>625</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="7">
+        <f t="shared" si="15"/>
+        <v>2626</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C253" s="3">
+        <f t="shared" si="16"/>
+        <v>626</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="7">
+        <f t="shared" si="15"/>
+        <v>2627</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C254" s="3">
+        <f t="shared" si="16"/>
+        <v>627</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="7">
+        <f t="shared" si="15"/>
+        <v>2628</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C255" s="3">
+        <f t="shared" si="16"/>
+        <v>628</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="7">
+        <f t="shared" si="15"/>
+        <v>2629</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C256" s="3">
+        <f t="shared" si="16"/>
+        <v>629</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="7">
+        <f t="shared" si="15"/>
+        <v>2630</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C257" s="3">
+        <f t="shared" si="16"/>
+        <v>630</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="7">
+        <f t="shared" si="15"/>
+        <v>2631</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C258" s="3">
+        <f t="shared" si="16"/>
+        <v>631</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="7">
+        <f t="shared" si="15"/>
+        <v>2632</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C259" s="3">
+        <f t="shared" si="16"/>
         <v>632</v>
       </c>
-      <c r="D250" s="4" t="s">
+      <c r="D259" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="7"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="8"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
-        <f>A218+50</f>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="7"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="8"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <f>A227+50</f>
         <v>2650</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B261" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C252" s="3">
-        <f>C218+50</f>
+      <c r="C261" s="3">
+        <f>C227+50</f>
         <v>650</v>
       </c>
-      <c r="D252" s="4" t="s">
+      <c r="D261" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
-        <f>A252+1</f>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <f>A261+1</f>
         <v>2651</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B262" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C253" s="3">
-        <f>C252+1</f>
+      <c r="C262" s="3">
+        <f>C261+1</f>
         <v>651</v>
       </c>
-      <c r="D253" s="4" t="s">
+      <c r="D262" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
-        <f t="shared" ref="A254:A283" si="17">A253+1</f>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <f t="shared" ref="A263:A272" si="17">A262+1</f>
         <v>2652</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B263" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C254" s="3">
-        <f t="shared" ref="C254:C283" si="18">C253+1</f>
+      <c r="C263" s="3">
+        <f t="shared" ref="C263:C272" si="18">C262+1</f>
         <v>652</v>
       </c>
-      <c r="D254" s="4" t="s">
+      <c r="D263" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
         <f t="shared" si="17"/>
         <v>2653</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B264" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C264" s="3">
         <f t="shared" si="18"/>
         <v>653</v>
       </c>
-      <c r="D255" s="4" t="s">
+      <c r="D264" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
         <f t="shared" si="17"/>
         <v>2654</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B265" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C265" s="3">
         <f t="shared" si="18"/>
         <v>654</v>
       </c>
-      <c r="D256" s="4" t="s">
+      <c r="D265" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
         <f t="shared" si="17"/>
         <v>2655</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B266" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C266" s="3">
         <f t="shared" si="18"/>
         <v>655</v>
       </c>
-      <c r="D257" s="4" t="s">
+      <c r="D266" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
         <f t="shared" si="17"/>
         <v>2656</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B267" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C267" s="3">
         <f t="shared" si="18"/>
         <v>656</v>
       </c>
-      <c r="D258" s="4" t="s">
+      <c r="D267" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
         <f t="shared" si="17"/>
         <v>2657</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B268" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C268" s="3">
         <f t="shared" si="18"/>
         <v>657</v>
       </c>
-      <c r="D259" s="4" t="s">
+      <c r="D268" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
         <f t="shared" si="17"/>
         <v>2658</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B269" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C269" s="3">
         <f t="shared" si="18"/>
         <v>658</v>
       </c>
-      <c r="D260" s="4" t="s">
+      <c r="D269" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
         <f t="shared" si="17"/>
         <v>2659</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B270" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C270" s="3">
         <f t="shared" si="18"/>
         <v>659</v>
       </c>
-      <c r="D261" s="4" t="s">
+      <c r="D270" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
         <f t="shared" si="17"/>
         <v>2660</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B271" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C271" s="3">
         <f t="shared" si="18"/>
         <v>660</v>
       </c>
-      <c r="D262" s="4" t="s">
+      <c r="D271" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
         <f t="shared" si="17"/>
         <v>2661</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B272" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C272" s="3">
         <f t="shared" si="18"/>
         <v>661</v>
       </c>
-      <c r="D263" s="4" t="s">
+      <c r="D272" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="13"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="13"/>
-      <c r="D264" s="11"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="13"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="13"/>
-      <c r="D265" s="11"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="13"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="13"/>
-      <c r="D266" s="11"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="13"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="13"/>
-      <c r="D267" s="11"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="13"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="13"/>
-      <c r="D268" s="11"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="13"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="13"/>
-      <c r="D269" s="11"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="13"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="13"/>
-      <c r="D270" s="11"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="13"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="13"/>
-      <c r="D271" s="11"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="13"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="13"/>
-      <c r="D272" s="11"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
@@ -5604,6 +5684,60 @@
       <c r="B283" s="11"/>
       <c r="C283" s="13"/>
       <c r="D283" s="11"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="13"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="11"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="13"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="11"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="13"/>
+      <c r="B286" s="11"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="11"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="13"/>
+      <c r="B287" s="11"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="11"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="13"/>
+      <c r="B288" s="11"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="11"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="13"/>
+      <c r="B289" s="11"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="11"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="13"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="11"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="13"/>
+      <c r="B291" s="11"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="11"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="13"/>
+      <c r="B292" s="11"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/Протокол 101.xlsx
+++ b/other/Протокол 101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="322">
   <si>
     <t>№101</t>
   </si>
@@ -450,12 +450,6 @@
     <t>Предупреждение общее 0x8000</t>
   </si>
   <si>
-    <t xml:space="preserve">Неисправность передатчика 0х0001 </t>
-  </si>
-  <si>
-    <t>Неисправность передатчика 0х0002</t>
-  </si>
-  <si>
     <t>Неисправность передатчика 0х0004</t>
   </si>
   <si>
@@ -474,18 +468,6 @@
     <t>Неисправность передатчика 0x0080</t>
   </si>
   <si>
-    <t>Неисправность передатчика 0x0100</t>
-  </si>
-  <si>
-    <t>Неисправность передатчика 0x0200</t>
-  </si>
-  <si>
-    <t>Неисправность передатчика 0x0400</t>
-  </si>
-  <si>
-    <t>Неисправность передатчика 0x0800</t>
-  </si>
-  <si>
     <t>Неисправность передатчика 0x1000</t>
   </si>
   <si>
@@ -501,12 +483,6 @@
     <t xml:space="preserve">Предупреждение передатчика 0х0001 </t>
   </si>
   <si>
-    <t>Предупреждение передатчика 0х0002</t>
-  </si>
-  <si>
-    <t>Предупреждение передатчика 0х0004</t>
-  </si>
-  <si>
     <t>Предупреждение передатчика 0х0008</t>
   </si>
   <si>
@@ -549,15 +525,6 @@
     <t>Приемник подключен</t>
   </si>
   <si>
-    <t xml:space="preserve">Неисправность приемника 0х0001 </t>
-  </si>
-  <si>
-    <t>Неисправность приемника 0х0002</t>
-  </si>
-  <si>
-    <t>Неисправность приемника 0х0004</t>
-  </si>
-  <si>
     <t>Неисправность приемника 0х0008</t>
   </si>
   <si>
@@ -573,18 +540,6 @@
     <t>Неисправность приемника 0x0080</t>
   </si>
   <si>
-    <t>Неисправность приемника 0x0100</t>
-  </si>
-  <si>
-    <t>Неисправность приемника 0x0200</t>
-  </si>
-  <si>
-    <t>Неисправность приемника 0x0400</t>
-  </si>
-  <si>
-    <t>Неисправность приемника 0x0800</t>
-  </si>
-  <si>
     <t>Неисправность приемника 0x1000</t>
   </si>
   <si>
@@ -597,15 +552,6 @@
     <t>Неисправность приемника 0x8000</t>
   </si>
   <si>
-    <t xml:space="preserve">Предупреждение приемника 0х0001 </t>
-  </si>
-  <si>
-    <t>Предупреждение приемника 0х0002</t>
-  </si>
-  <si>
-    <t>Предупреждение приемника 0х0004</t>
-  </si>
-  <si>
     <t>Предупреждение приемника 0х0008</t>
   </si>
   <si>
@@ -952,6 +898,90 @@
   </si>
   <si>
     <t>Приемник режим Выведен</t>
+  </si>
+  <si>
+    <t>ОБЩ Неиспр 0x0001: Неиспр.чт. FLASH</t>
+  </si>
+  <si>
+    <t>ОБЩ Неиспр 0x0002: Неиспр.зап.FLASH</t>
+  </si>
+  <si>
+    <t>ОБЩ Неиспр 0x0004: Неиспр.чт. PLIS</t>
+  </si>
+  <si>
+    <t>ОБЩ Неиспр 0x0008: Неиспр.зап.PLIS</t>
+  </si>
+  <si>
+    <t>ОБЩ Неиспр 0x0010: Неиспр.зап.2RAM</t>
+  </si>
+  <si>
+    <t>ОБЩ Неиспр 0x0100: Неиспр.DSP 2RAM</t>
+  </si>
+  <si>
+    <t>ОБЩ Неиспр 0x0200: Неиспр.чт. 2RAM</t>
+  </si>
+  <si>
+    <t>ОБЩ Неиспр 0x0800: Низкое напр.вых</t>
+  </si>
+  <si>
+    <t>ОБЩ Неиспр 0x1000: Высокое напр.вых</t>
+  </si>
+  <si>
+    <t>ОБЩ Предуп 0x0001: Установите часы</t>
+  </si>
+  <si>
+    <t>ПРД Неиспр 0x0001: Нет блока БСК</t>
+  </si>
+  <si>
+    <t>ПРД Неиспр 0x0002: Неиспр.верс. БСК</t>
+  </si>
+  <si>
+    <t>ПРД Неиспр 0x0100: Неиспр.чт.команд</t>
+  </si>
+  <si>
+    <t>ПРД Неиспр 0x0200: Неиспр.выкл.Тест</t>
+  </si>
+  <si>
+    <t>ПРД Неиспр 0x0400: Неиспр.вкл. Тест</t>
+  </si>
+  <si>
+    <t>ПРД Неиспр 0x0800: Неиспр.вход. ком</t>
+  </si>
+  <si>
+    <t>ПРД Предуп 0x0002: Ошибка работы ЦС</t>
+  </si>
+  <si>
+    <t>ПРД Предуп 0x0004: Вход RX ЦС пуст</t>
+  </si>
+  <si>
+    <t>ПРМ Неиспр 0x0001: Нет блока БСК</t>
+  </si>
+  <si>
+    <t>ПРМ Неиспр 0x0002: Неиспр.верс. БСК</t>
+  </si>
+  <si>
+    <t>ПРМ Неиспр 0x0004: Нет КЧ</t>
+  </si>
+  <si>
+    <t>ПРМ Неиспр 0x0100: Неиспр.зап. БСК</t>
+  </si>
+  <si>
+    <t>ПРМ Неиспр 0x0200: Неиспр.выкл. ком</t>
+  </si>
+  <si>
+    <t>ПРМ Неиспр 0x0400: Неиспр.вкл. ком</t>
+  </si>
+  <si>
+    <t>ПРМ Неиспр 0x0800: Неиспр.контр.ком</t>
+  </si>
+  <si>
+    <t>ПРМ Предуп 0x0001: Сниж. уровня ПРМ</t>
+  </si>
+  <si>
+    <t>ПРМ Предуп 0x0002: Ошибка работы ЦС</t>
+  </si>
+  <si>
+    <t>ПРМ Предуп 0x0004: Вход RX ЦС пуст</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,10 +1977,10 @@
         <v>71</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1965,10 +1995,10 @@
         <v>71</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,10 +2013,10 @@
         <v>71</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="E39" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2001,10 +2031,10 @@
         <v>71</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,10 +2049,10 @@
         <v>71</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2037,10 +2067,10 @@
         <v>71</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="E42" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,17 +2111,17 @@
         <v>2201</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C46" s="7">
         <f>C2+201</f>
         <v>201</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2100,17 +2130,17 @@
         <v>2202</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C47" s="7">
         <f>C46+1</f>
         <v>202</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E47" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,17 +2149,17 @@
         <v>2203</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" ref="C48:C49" si="4">C47+1</f>
         <v>203</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E48" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2138,17 +2168,17 @@
         <v>2204</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E49" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="J49">
         <v>230</v>
@@ -2173,7 +2203,7 @@
         <v>301</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2189,7 +2219,7 @@
         <v>302</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>113</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2205,7 +2235,7 @@
         <v>303</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>114</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2221,7 +2251,7 @@
         <v>304</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>115</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2237,7 +2267,7 @@
         <v>305</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>116</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2301,7 +2331,7 @@
         <v>309</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2317,7 +2347,7 @@
         <v>310</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2349,7 +2379,7 @@
         <v>312</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2365,7 +2395,7 @@
         <v>313</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,7 +2459,7 @@
         <v>317</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,14 +2730,14 @@
         <v>2401</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="C85" s="3">
         <f>C84+1</f>
         <v>401</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,14 +2746,14 @@
         <v>2402</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="C86" s="3">
         <f t="shared" ref="C86:C116" si="8">C85+1</f>
         <v>402</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>145</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,14 +2762,14 @@
         <v>2403</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C87" s="3">
         <f t="shared" si="8"/>
         <v>403</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,14 +2778,14 @@
         <v>2404</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C88" s="3">
         <f t="shared" si="8"/>
         <v>404</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2764,14 +2794,14 @@
         <v>2405</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C89" s="3">
         <f t="shared" si="8"/>
         <v>405</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2780,14 +2810,14 @@
         <v>2406</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C90" s="3">
         <f t="shared" si="8"/>
         <v>406</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2796,14 +2826,14 @@
         <v>2407</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C91" s="3">
         <f t="shared" si="8"/>
         <v>407</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,14 +2842,14 @@
         <v>2408</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="3">
         <f t="shared" si="8"/>
         <v>408</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,14 +2858,14 @@
         <v>2409</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="C93" s="3">
         <f t="shared" si="8"/>
         <v>409</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,14 +2874,14 @@
         <v>2410</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="C94" s="3">
         <f t="shared" si="8"/>
         <v>410</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,14 +2890,14 @@
         <v>2411</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="C95" s="3">
         <f t="shared" si="8"/>
         <v>411</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2876,14 +2906,14 @@
         <v>2412</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="C96" s="3">
         <f t="shared" si="8"/>
         <v>412</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2892,14 +2922,14 @@
         <v>2413</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C97" s="3">
         <f t="shared" si="8"/>
         <v>413</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2908,14 +2938,14 @@
         <v>2414</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C98" s="3">
         <f t="shared" si="8"/>
         <v>414</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,14 +2954,14 @@
         <v>2415</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C99" s="3">
         <f t="shared" si="8"/>
         <v>415</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,14 +2970,14 @@
         <v>2416</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C100" s="3">
         <f t="shared" si="8"/>
         <v>416</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,14 +2986,14 @@
         <v>2417</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C101" s="3">
         <f t="shared" si="8"/>
         <v>417</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,14 +3002,14 @@
         <v>2418</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="C102" s="3">
         <f t="shared" si="8"/>
         <v>418</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,14 +3018,14 @@
         <v>2419</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="C103" s="3">
         <f t="shared" si="8"/>
         <v>419</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,14 +3034,14 @@
         <v>2420</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C104" s="3">
         <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,14 +3050,14 @@
         <v>2421</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C105" s="3">
         <f t="shared" si="8"/>
         <v>421</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3036,14 +3066,14 @@
         <v>2422</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C106" s="3">
         <f t="shared" si="8"/>
         <v>422</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3052,14 +3082,14 @@
         <v>2423</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C107" s="3">
         <f t="shared" si="8"/>
         <v>423</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,14 +3098,14 @@
         <v>2424</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C108" s="3">
         <f t="shared" si="8"/>
         <v>424</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,14 +3114,14 @@
         <v>2425</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C109" s="3">
         <f t="shared" si="8"/>
         <v>425</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3100,14 +3130,14 @@
         <v>2426</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C110" s="3">
         <f t="shared" si="8"/>
         <v>426</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,14 +3146,14 @@
         <v>2427</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C111" s="3">
         <f t="shared" si="8"/>
         <v>427</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,14 +3162,14 @@
         <v>2428</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C112" s="3">
         <f t="shared" si="8"/>
         <v>428</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3148,14 +3178,14 @@
         <v>2429</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C113" s="3">
         <f t="shared" si="8"/>
         <v>429</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3164,14 +3194,14 @@
         <v>2430</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C114" s="3">
         <f t="shared" si="8"/>
         <v>430</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3180,14 +3210,14 @@
         <v>2431</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C115" s="3">
         <f t="shared" si="8"/>
         <v>431</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,14 +3226,14 @@
         <v>2432</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C116" s="3">
         <f t="shared" si="8"/>
         <v>432</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3736,13 +3766,13 @@
         <v>2485</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C151" s="3">
         <v>485</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3750,13 +3780,13 @@
         <v>2486</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C152" s="3">
         <v>486</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3764,13 +3794,13 @@
         <v>2487</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C153" s="3">
         <v>487</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,14 +3815,14 @@
         <v>2500</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C155" s="7">
         <f>C2+500</f>
         <v>500</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,14 +3831,14 @@
         <v>2501</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="C156" s="3">
         <f>C155+1</f>
         <v>501</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3817,14 +3847,14 @@
         <v>2502</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>178</v>
+        <v>313</v>
       </c>
       <c r="C157" s="3">
         <f t="shared" ref="C157:C187" si="12">C156+1</f>
         <v>502</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>178</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3833,14 +3863,14 @@
         <v>2503</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="C158" s="3">
         <f t="shared" si="12"/>
         <v>503</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3849,14 +3879,14 @@
         <v>2504</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C159" s="3">
         <f t="shared" si="12"/>
         <v>504</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3865,14 +3895,14 @@
         <v>2505</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C160" s="3">
         <f t="shared" si="12"/>
         <v>505</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3881,14 +3911,14 @@
         <v>2506</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C161" s="3">
         <f t="shared" si="12"/>
         <v>506</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3897,14 +3927,14 @@
         <v>2507</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C162" s="3">
         <f t="shared" si="12"/>
         <v>507</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,14 +3943,14 @@
         <v>2508</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C163" s="3">
         <f t="shared" si="12"/>
         <v>508</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,14 +3959,14 @@
         <v>2509</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="C164" s="3">
         <f t="shared" si="12"/>
         <v>509</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3945,14 +3975,14 @@
         <v>2510</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>186</v>
+        <v>316</v>
       </c>
       <c r="C165" s="3">
         <f t="shared" si="12"/>
         <v>510</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>186</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3961,14 +3991,14 @@
         <v>2511</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="C166" s="3">
         <f t="shared" si="12"/>
         <v>511</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3977,14 +4007,14 @@
         <v>2512</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
       <c r="C167" s="3">
         <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3993,14 +4023,14 @@
         <v>2513</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C168" s="3">
         <f t="shared" si="12"/>
         <v>513</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4009,14 +4039,14 @@
         <v>2514</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C169" s="3">
         <f t="shared" si="12"/>
         <v>514</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4025,14 +4055,14 @@
         <v>2515</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C170" s="3">
         <f t="shared" si="12"/>
         <v>515</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4041,14 +4071,14 @@
         <v>2516</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C171" s="3">
         <f t="shared" si="12"/>
         <v>516</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4057,14 +4087,14 @@
         <v>2517</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="C172" s="3">
         <f t="shared" si="12"/>
         <v>517</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4073,14 +4103,14 @@
         <v>2518</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="C173" s="3">
         <f t="shared" si="12"/>
         <v>518</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4089,14 +4119,14 @@
         <v>2519</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="C174" s="3">
         <f t="shared" si="12"/>
         <v>519</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,14 +4135,14 @@
         <v>2520</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C175" s="3">
         <f t="shared" si="12"/>
         <v>520</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4121,14 +4151,14 @@
         <v>2521</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C176" s="3">
         <f t="shared" si="12"/>
         <v>521</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4137,14 +4167,14 @@
         <v>2522</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C177" s="3">
         <f t="shared" si="12"/>
         <v>522</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4153,14 +4183,14 @@
         <v>2523</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C178" s="3">
         <f t="shared" si="12"/>
         <v>523</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4169,14 +4199,14 @@
         <v>2524</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C179" s="3">
         <f t="shared" si="12"/>
         <v>524</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,14 +4215,14 @@
         <v>2525</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C180" s="3">
         <f t="shared" si="12"/>
         <v>525</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,14 +4231,14 @@
         <v>2526</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C181" s="3">
         <f t="shared" si="12"/>
         <v>526</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4217,14 +4247,14 @@
         <v>2527</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C182" s="3">
         <f t="shared" si="12"/>
         <v>527</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4233,14 +4263,14 @@
         <v>2528</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C183" s="3">
         <f t="shared" si="12"/>
         <v>528</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,14 +4279,14 @@
         <v>2529</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C184" s="3">
         <f t="shared" si="12"/>
         <v>529</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4265,14 +4295,14 @@
         <v>2530</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C185" s="3">
         <f t="shared" si="12"/>
         <v>530</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4281,14 +4311,14 @@
         <v>2531</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C186" s="3">
         <f t="shared" si="12"/>
         <v>531</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4297,14 +4327,14 @@
         <v>2532</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C187" s="3">
         <f t="shared" si="12"/>
         <v>532</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,14 +4349,14 @@
         <v>2550</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C189" s="3">
         <f>C155+50</f>
         <v>550</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,14 +4365,14 @@
         <v>2551</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C190" s="3">
         <f>C189+1</f>
         <v>551</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,14 +4381,14 @@
         <v>2552</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C191" s="3">
         <f t="shared" ref="C191:C220" si="14">C190+1</f>
         <v>552</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4367,14 +4397,14 @@
         <v>2553</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C192" s="3">
         <f t="shared" si="14"/>
         <v>553</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,14 +4413,14 @@
         <v>2554</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C193" s="3">
         <f t="shared" si="14"/>
         <v>554</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,14 +4429,14 @@
         <v>2555</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C194" s="3">
         <f t="shared" si="14"/>
         <v>555</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4415,14 +4445,14 @@
         <v>2556</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C195" s="3">
         <f t="shared" si="14"/>
         <v>556</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,14 +4461,14 @@
         <v>2557</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C196" s="3">
         <f t="shared" si="14"/>
         <v>557</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,14 +4477,14 @@
         <v>2558</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C197" s="3">
         <f t="shared" si="14"/>
         <v>558</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4463,14 +4493,14 @@
         <v>2559</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C198" s="3">
         <f t="shared" si="14"/>
         <v>559</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,14 +4509,14 @@
         <v>2560</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C199" s="3">
         <f t="shared" si="14"/>
         <v>560</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4495,14 +4525,14 @@
         <v>2561</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C200" s="3">
         <f t="shared" si="14"/>
         <v>561</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4511,14 +4541,14 @@
         <v>2562</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C201" s="3">
         <f t="shared" si="14"/>
         <v>562</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4527,14 +4557,14 @@
         <v>2563</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C202" s="3">
         <f t="shared" si="14"/>
         <v>563</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4543,14 +4573,14 @@
         <v>2564</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C203" s="3">
         <f t="shared" si="14"/>
         <v>564</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,14 +4589,14 @@
         <v>2565</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C204" s="3">
         <f t="shared" si="14"/>
         <v>565</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4575,14 +4605,14 @@
         <v>2566</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C205" s="3">
         <f t="shared" si="14"/>
         <v>566</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4591,14 +4621,14 @@
         <v>2567</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C206" s="3">
         <f t="shared" si="14"/>
         <v>567</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,14 +4637,14 @@
         <v>2568</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C207" s="3">
         <f t="shared" si="14"/>
         <v>568</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,14 +4653,14 @@
         <v>2569</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C208" s="3">
         <f t="shared" si="14"/>
         <v>569</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4639,14 +4669,14 @@
         <v>2570</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C209" s="3">
         <f t="shared" si="14"/>
         <v>570</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4655,14 +4685,14 @@
         <v>2571</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C210" s="3">
         <f t="shared" si="14"/>
         <v>571</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4671,14 +4701,14 @@
         <v>2572</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C211" s="3">
         <f t="shared" si="14"/>
         <v>572</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4687,14 +4717,14 @@
         <v>2573</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C212" s="3">
         <f t="shared" si="14"/>
         <v>573</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4703,14 +4733,14 @@
         <v>2574</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C213" s="3">
         <f t="shared" si="14"/>
         <v>574</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,14 +4749,14 @@
         <v>2575</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C214" s="3">
         <f t="shared" si="14"/>
         <v>575</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4735,14 +4765,14 @@
         <v>2576</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C215" s="3">
         <f t="shared" si="14"/>
         <v>576</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,14 +4781,14 @@
         <v>2577</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C216" s="3">
         <f t="shared" si="14"/>
         <v>577</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,14 +4797,14 @@
         <v>2578</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C217" s="3">
         <f t="shared" si="14"/>
         <v>578</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4783,14 +4813,14 @@
         <v>2579</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C218" s="3">
         <f t="shared" si="14"/>
         <v>579</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,14 +4829,14 @@
         <v>2580</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C219" s="3">
         <f t="shared" si="14"/>
         <v>580</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,14 +4845,14 @@
         <v>2581</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C220" s="3">
         <f t="shared" si="14"/>
         <v>581</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,13 +4866,13 @@
         <v>2585</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C222" s="3">
         <v>585</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4850,13 +4880,13 @@
         <v>2586</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C223" s="3">
         <v>586</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4864,13 +4894,13 @@
         <v>2587</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C224" s="3">
         <v>587</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4878,13 +4908,13 @@
         <v>2588</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C225" s="3">
         <v>588</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,14 +4929,14 @@
         <v>2600</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C227" s="7">
         <f>C2+600</f>
         <v>600</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,14 +4945,14 @@
         <v>2601</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C228" s="3">
         <f>C227+1</f>
         <v>601</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4931,14 +4961,14 @@
         <v>2602</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C229" s="3">
         <f t="shared" ref="C229:C259" si="16">C228+1</f>
         <v>602</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4947,14 +4977,14 @@
         <v>2603</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C230" s="3">
         <f t="shared" si="16"/>
         <v>603</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,14 +4993,14 @@
         <v>2604</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C231" s="3">
         <f t="shared" si="16"/>
         <v>604</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,14 +5009,14 @@
         <v>2605</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C232" s="3">
         <f t="shared" si="16"/>
         <v>605</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4995,14 +5025,14 @@
         <v>2606</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C233" s="3">
         <f t="shared" si="16"/>
         <v>606</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,14 +5041,14 @@
         <v>2607</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C234" s="3">
         <f t="shared" si="16"/>
         <v>607</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,14 +5057,14 @@
         <v>2608</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C235" s="3">
         <f t="shared" si="16"/>
         <v>608</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5043,14 +5073,14 @@
         <v>2609</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C236" s="3">
         <f t="shared" si="16"/>
         <v>609</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5059,14 +5089,14 @@
         <v>2610</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C237" s="3">
         <f t="shared" si="16"/>
         <v>610</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5075,14 +5105,14 @@
         <v>2611</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C238" s="3">
         <f t="shared" si="16"/>
         <v>611</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,14 +5121,14 @@
         <v>2612</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C239" s="3">
         <f t="shared" si="16"/>
         <v>612</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5107,14 +5137,14 @@
         <v>2613</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C240" s="3">
         <f t="shared" si="16"/>
         <v>613</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5123,14 +5153,14 @@
         <v>2614</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C241" s="3">
         <f t="shared" si="16"/>
         <v>614</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,14 +5169,14 @@
         <v>2615</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C242" s="3">
         <f t="shared" si="16"/>
         <v>615</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,14 +5185,14 @@
         <v>2616</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C243" s="3">
         <f t="shared" si="16"/>
         <v>616</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5171,14 +5201,14 @@
         <v>2617</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C244" s="3">
         <f t="shared" si="16"/>
         <v>617</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,14 +5217,14 @@
         <v>2618</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C245" s="3">
         <f t="shared" si="16"/>
         <v>618</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5203,14 +5233,14 @@
         <v>2619</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C246" s="3">
         <f t="shared" si="16"/>
         <v>619</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5219,14 +5249,14 @@
         <v>2620</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C247" s="3">
         <f t="shared" si="16"/>
         <v>620</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,14 +5265,14 @@
         <v>2621</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C248" s="3">
         <f t="shared" si="16"/>
         <v>621</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5251,14 +5281,14 @@
         <v>2622</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C249" s="3">
         <f t="shared" si="16"/>
         <v>622</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,14 +5297,14 @@
         <v>2623</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C250" s="3">
         <f t="shared" si="16"/>
         <v>623</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5283,14 +5313,14 @@
         <v>2624</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C251" s="3">
         <f t="shared" si="16"/>
         <v>624</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,14 +5329,14 @@
         <v>2625</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C252" s="3">
         <f t="shared" si="16"/>
         <v>625</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,14 +5345,14 @@
         <v>2626</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C253" s="3">
         <f t="shared" si="16"/>
         <v>626</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,14 +5361,14 @@
         <v>2627</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C254" s="3">
         <f t="shared" si="16"/>
         <v>627</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5347,14 +5377,14 @@
         <v>2628</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C255" s="3">
         <f t="shared" si="16"/>
         <v>628</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5363,14 +5393,14 @@
         <v>2629</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C256" s="3">
         <f t="shared" si="16"/>
         <v>629</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,14 +5409,14 @@
         <v>2630</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C257" s="3">
         <f t="shared" si="16"/>
         <v>630</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5395,14 +5425,14 @@
         <v>2631</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C258" s="3">
         <f t="shared" si="16"/>
         <v>631</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5411,14 +5441,14 @@
         <v>2632</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C259" s="3">
         <f t="shared" si="16"/>
         <v>632</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5433,14 +5463,14 @@
         <v>2650</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C261" s="3">
         <f>C227+50</f>
         <v>650</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5449,14 +5479,14 @@
         <v>2651</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C262" s="3">
         <f>C261+1</f>
         <v>651</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5465,14 +5495,14 @@
         <v>2652</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C263" s="3">
         <f t="shared" ref="C263:C272" si="18">C262+1</f>
         <v>652</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,14 +5511,14 @@
         <v>2653</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C264" s="3">
         <f t="shared" si="18"/>
         <v>653</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5497,14 +5527,14 @@
         <v>2654</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C265" s="3">
         <f t="shared" si="18"/>
         <v>654</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,14 +5543,14 @@
         <v>2655</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C266" s="3">
         <f t="shared" si="18"/>
         <v>655</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,14 +5559,14 @@
         <v>2656</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C267" s="3">
         <f t="shared" si="18"/>
         <v>656</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5545,14 +5575,14 @@
         <v>2657</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C268" s="3">
         <f t="shared" si="18"/>
         <v>657</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5561,14 +5591,14 @@
         <v>2658</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C269" s="3">
         <f t="shared" si="18"/>
         <v>658</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5577,14 +5607,14 @@
         <v>2659</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C270" s="3">
         <f t="shared" si="18"/>
         <v>659</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5593,14 +5623,14 @@
         <v>2660</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C271" s="3">
         <f t="shared" si="18"/>
         <v>660</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5609,14 +5639,14 @@
         <v>2661</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C272" s="3">
         <f t="shared" si="18"/>
         <v>661</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">

--- a/other/Протокол 101.xlsx
+++ b/other/Протокол 101.xlsx
@@ -525,9 +525,6 @@
     <t>Приемник подключен</t>
   </si>
   <si>
-    <t>Неисправность приемника 0х0008</t>
-  </si>
-  <si>
     <t>Неисправность приемника 0x0010</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>Неисправность приемника 0x8000</t>
   </si>
   <si>
-    <t>Предупреждение приемника 0х0008</t>
-  </si>
-  <si>
     <t>Предупреждение приемника 0x0010</t>
   </si>
   <si>
@@ -982,6 +976,12 @@
   </si>
   <si>
     <t>ПРМ Предуп 0x0004: Вход RX ЦС пуст</t>
+  </si>
+  <si>
+    <t>ПРМ Неиспр 0x0008: Низкий уровень D</t>
+  </si>
+  <si>
+    <t>ПРМ Предуп 0х0008: Низкий уровень D</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,10 +1977,10 @@
         <v>71</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,10 +1995,10 @@
         <v>71</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2013,10 +2013,10 @@
         <v>71</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2031,10 +2031,10 @@
         <v>71</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,10 +2049,10 @@
         <v>71</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2067,10 +2067,10 @@
         <v>71</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2111,17 +2111,17 @@
         <v>2201</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C46" s="7">
         <f>C2+201</f>
         <v>201</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,17 +2130,17 @@
         <v>2202</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C47" s="7">
         <f>C46+1</f>
         <v>202</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2149,17 +2149,17 @@
         <v>2203</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" ref="C48:C49" si="4">C47+1</f>
         <v>203</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2168,17 +2168,17 @@
         <v>2204</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J49">
         <v>230</v>
@@ -2203,7 +2203,7 @@
         <v>301</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2219,7 +2219,7 @@
         <v>302</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2235,7 +2235,7 @@
         <v>303</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2251,7 +2251,7 @@
         <v>304</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
         <v>305</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2331,7 +2331,7 @@
         <v>309</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>310</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
         <v>312</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2395,7 +2395,7 @@
         <v>313</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>317</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2730,14 +2730,14 @@
         <v>2401</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C85" s="3">
         <f>C84+1</f>
         <v>401</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2746,14 +2746,14 @@
         <v>2402</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C86" s="3">
         <f t="shared" ref="C86:C116" si="8">C85+1</f>
         <v>402</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,14 +2858,14 @@
         <v>2409</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C93" s="3">
         <f t="shared" si="8"/>
         <v>409</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,14 +2874,14 @@
         <v>2410</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C94" s="3">
         <f t="shared" si="8"/>
         <v>410</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2890,14 +2890,14 @@
         <v>2411</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C95" s="3">
         <f t="shared" si="8"/>
         <v>411</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,14 +2906,14 @@
         <v>2412</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C96" s="3">
         <f t="shared" si="8"/>
         <v>412</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,14 +3002,14 @@
         <v>2418</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C102" s="3">
         <f t="shared" si="8"/>
         <v>418</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3018,14 +3018,14 @@
         <v>2419</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C103" s="3">
         <f t="shared" si="8"/>
         <v>419</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3766,13 +3766,13 @@
         <v>2485</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C151" s="3">
         <v>485</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,13 +3780,13 @@
         <v>2486</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C152" s="3">
         <v>486</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3794,13 +3794,13 @@
         <v>2487</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C153" s="3">
         <v>487</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3831,14 +3831,14 @@
         <v>2501</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C156" s="3">
         <f>C155+1</f>
         <v>501</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3847,14 +3847,14 @@
         <v>2502</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C157" s="3">
         <f t="shared" ref="C157:C187" si="12">C156+1</f>
         <v>502</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3863,14 +3863,14 @@
         <v>2503</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C158" s="3">
         <f t="shared" si="12"/>
         <v>503</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,14 +3879,14 @@
         <v>2504</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c r="C159" s="3">
         <f t="shared" si="12"/>
         <v>504</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>169</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3895,14 +3895,14 @@
         <v>2505</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C160" s="3">
         <f t="shared" si="12"/>
         <v>505</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3911,14 +3911,14 @@
         <v>2506</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C161" s="3">
         <f t="shared" si="12"/>
         <v>506</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,14 +3927,14 @@
         <v>2507</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C162" s="3">
         <f t="shared" si="12"/>
         <v>507</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,14 +3943,14 @@
         <v>2508</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C163" s="3">
         <f t="shared" si="12"/>
         <v>508</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,14 +3959,14 @@
         <v>2509</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C164" s="3">
         <f t="shared" si="12"/>
         <v>509</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,14 +3975,14 @@
         <v>2510</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C165" s="3">
         <f t="shared" si="12"/>
         <v>510</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3991,14 +3991,14 @@
         <v>2511</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C166" s="3">
         <f t="shared" si="12"/>
         <v>511</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,14 +4007,14 @@
         <v>2512</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C167" s="3">
         <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4023,14 +4023,14 @@
         <v>2513</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C168" s="3">
         <f t="shared" si="12"/>
         <v>513</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4039,14 +4039,14 @@
         <v>2514</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C169" s="3">
         <f t="shared" si="12"/>
         <v>514</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4055,14 +4055,14 @@
         <v>2515</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C170" s="3">
         <f t="shared" si="12"/>
         <v>515</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4071,14 +4071,14 @@
         <v>2516</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C171" s="3">
         <f t="shared" si="12"/>
         <v>516</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4087,14 +4087,14 @@
         <v>2517</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C172" s="3">
         <f t="shared" si="12"/>
         <v>517</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4103,14 +4103,14 @@
         <v>2518</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C173" s="3">
         <f t="shared" si="12"/>
         <v>518</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,14 +4119,14 @@
         <v>2519</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C174" s="3">
         <f t="shared" si="12"/>
         <v>519</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4135,14 +4135,14 @@
         <v>2520</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="C175" s="3">
         <f t="shared" si="12"/>
         <v>520</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>178</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,14 +4151,14 @@
         <v>2521</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C176" s="3">
         <f t="shared" si="12"/>
         <v>521</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,14 +4167,14 @@
         <v>2522</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C177" s="3">
         <f t="shared" si="12"/>
         <v>522</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4183,14 +4183,14 @@
         <v>2523</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C178" s="3">
         <f t="shared" si="12"/>
         <v>523</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,14 +4199,14 @@
         <v>2524</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C179" s="3">
         <f t="shared" si="12"/>
         <v>524</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,14 +4215,14 @@
         <v>2525</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C180" s="3">
         <f t="shared" si="12"/>
         <v>525</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,14 +4231,14 @@
         <v>2526</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C181" s="3">
         <f t="shared" si="12"/>
         <v>526</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4247,14 +4247,14 @@
         <v>2527</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C182" s="3">
         <f t="shared" si="12"/>
         <v>527</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,14 +4263,14 @@
         <v>2528</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C183" s="3">
         <f t="shared" si="12"/>
         <v>528</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4279,14 +4279,14 @@
         <v>2529</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C184" s="3">
         <f t="shared" si="12"/>
         <v>529</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,14 +4295,14 @@
         <v>2530</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C185" s="3">
         <f t="shared" si="12"/>
         <v>530</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,14 +4311,14 @@
         <v>2531</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C186" s="3">
         <f t="shared" si="12"/>
         <v>531</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,14 +4327,14 @@
         <v>2532</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C187" s="3">
         <f t="shared" si="12"/>
         <v>532</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,14 +4349,14 @@
         <v>2550</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C189" s="3">
         <f>C155+50</f>
         <v>550</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4365,14 +4365,14 @@
         <v>2551</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C190" s="3">
         <f>C189+1</f>
         <v>551</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,14 +4381,14 @@
         <v>2552</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C191" s="3">
         <f t="shared" ref="C191:C220" si="14">C190+1</f>
         <v>552</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4397,14 +4397,14 @@
         <v>2553</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C192" s="3">
         <f t="shared" si="14"/>
         <v>553</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4413,14 +4413,14 @@
         <v>2554</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C193" s="3">
         <f t="shared" si="14"/>
         <v>554</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4429,14 +4429,14 @@
         <v>2555</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C194" s="3">
         <f t="shared" si="14"/>
         <v>555</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,14 +4445,14 @@
         <v>2556</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C195" s="3">
         <f t="shared" si="14"/>
         <v>556</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,14 +4461,14 @@
         <v>2557</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C196" s="3">
         <f t="shared" si="14"/>
         <v>557</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4477,14 +4477,14 @@
         <v>2558</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C197" s="3">
         <f t="shared" si="14"/>
         <v>558</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,14 +4493,14 @@
         <v>2559</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C198" s="3">
         <f t="shared" si="14"/>
         <v>559</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4509,14 +4509,14 @@
         <v>2560</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C199" s="3">
         <f t="shared" si="14"/>
         <v>560</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,14 +4525,14 @@
         <v>2561</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C200" s="3">
         <f t="shared" si="14"/>
         <v>561</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4541,14 +4541,14 @@
         <v>2562</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C201" s="3">
         <f t="shared" si="14"/>
         <v>562</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4557,14 +4557,14 @@
         <v>2563</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C202" s="3">
         <f t="shared" si="14"/>
         <v>563</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4573,14 +4573,14 @@
         <v>2564</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C203" s="3">
         <f t="shared" si="14"/>
         <v>564</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,14 +4589,14 @@
         <v>2565</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C204" s="3">
         <f t="shared" si="14"/>
         <v>565</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,14 +4605,14 @@
         <v>2566</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C205" s="3">
         <f t="shared" si="14"/>
         <v>566</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4621,14 +4621,14 @@
         <v>2567</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C206" s="3">
         <f t="shared" si="14"/>
         <v>567</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,14 +4637,14 @@
         <v>2568</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C207" s="3">
         <f t="shared" si="14"/>
         <v>568</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4653,14 +4653,14 @@
         <v>2569</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C208" s="3">
         <f t="shared" si="14"/>
         <v>569</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4669,14 +4669,14 @@
         <v>2570</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C209" s="3">
         <f t="shared" si="14"/>
         <v>570</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,14 +4685,14 @@
         <v>2571</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C210" s="3">
         <f t="shared" si="14"/>
         <v>571</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4701,14 +4701,14 @@
         <v>2572</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C211" s="3">
         <f t="shared" si="14"/>
         <v>572</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4717,14 +4717,14 @@
         <v>2573</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C212" s="3">
         <f t="shared" si="14"/>
         <v>573</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,14 +4733,14 @@
         <v>2574</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C213" s="3">
         <f t="shared" si="14"/>
         <v>574</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4749,14 +4749,14 @@
         <v>2575</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C214" s="3">
         <f t="shared" si="14"/>
         <v>575</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4765,14 +4765,14 @@
         <v>2576</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C215" s="3">
         <f t="shared" si="14"/>
         <v>576</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,14 +4781,14 @@
         <v>2577</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C216" s="3">
         <f t="shared" si="14"/>
         <v>577</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4797,14 +4797,14 @@
         <v>2578</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C217" s="3">
         <f t="shared" si="14"/>
         <v>578</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,14 +4813,14 @@
         <v>2579</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C218" s="3">
         <f t="shared" si="14"/>
         <v>579</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4829,14 +4829,14 @@
         <v>2580</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C219" s="3">
         <f t="shared" si="14"/>
         <v>580</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4845,14 +4845,14 @@
         <v>2581</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C220" s="3">
         <f t="shared" si="14"/>
         <v>581</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4866,13 +4866,13 @@
         <v>2585</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C222" s="3">
         <v>585</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,13 +4880,13 @@
         <v>2586</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C223" s="3">
         <v>586</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4894,13 +4894,13 @@
         <v>2587</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C224" s="3">
         <v>587</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4908,13 +4908,13 @@
         <v>2588</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C225" s="3">
         <v>588</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,14 +4929,14 @@
         <v>2600</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C227" s="7">
         <f>C2+600</f>
         <v>600</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,14 +4945,14 @@
         <v>2601</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C228" s="3">
         <f>C227+1</f>
         <v>601</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4961,14 +4961,14 @@
         <v>2602</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C229" s="3">
         <f t="shared" ref="C229:C259" si="16">C228+1</f>
         <v>602</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4977,14 +4977,14 @@
         <v>2603</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C230" s="3">
         <f t="shared" si="16"/>
         <v>603</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,14 +4993,14 @@
         <v>2604</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C231" s="3">
         <f t="shared" si="16"/>
         <v>604</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5009,14 +5009,14 @@
         <v>2605</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C232" s="3">
         <f t="shared" si="16"/>
         <v>605</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,14 +5025,14 @@
         <v>2606</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C233" s="3">
         <f t="shared" si="16"/>
         <v>606</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,14 +5041,14 @@
         <v>2607</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C234" s="3">
         <f t="shared" si="16"/>
         <v>607</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,14 +5057,14 @@
         <v>2608</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C235" s="3">
         <f t="shared" si="16"/>
         <v>608</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5073,14 +5073,14 @@
         <v>2609</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C236" s="3">
         <f t="shared" si="16"/>
         <v>609</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,14 +5089,14 @@
         <v>2610</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C237" s="3">
         <f t="shared" si="16"/>
         <v>610</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,14 +5105,14 @@
         <v>2611</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C238" s="3">
         <f t="shared" si="16"/>
         <v>611</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,14 +5121,14 @@
         <v>2612</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C239" s="3">
         <f t="shared" si="16"/>
         <v>612</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,14 +5137,14 @@
         <v>2613</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C240" s="3">
         <f t="shared" si="16"/>
         <v>613</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5153,14 +5153,14 @@
         <v>2614</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C241" s="3">
         <f t="shared" si="16"/>
         <v>614</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,14 +5169,14 @@
         <v>2615</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C242" s="3">
         <f t="shared" si="16"/>
         <v>615</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5185,14 +5185,14 @@
         <v>2616</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C243" s="3">
         <f t="shared" si="16"/>
         <v>616</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,14 +5201,14 @@
         <v>2617</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C244" s="3">
         <f t="shared" si="16"/>
         <v>617</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5217,14 +5217,14 @@
         <v>2618</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C245" s="3">
         <f t="shared" si="16"/>
         <v>618</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5233,14 +5233,14 @@
         <v>2619</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C246" s="3">
         <f t="shared" si="16"/>
         <v>619</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,14 +5249,14 @@
         <v>2620</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C247" s="3">
         <f t="shared" si="16"/>
         <v>620</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5265,14 +5265,14 @@
         <v>2621</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C248" s="3">
         <f t="shared" si="16"/>
         <v>621</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,14 +5281,14 @@
         <v>2622</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C249" s="3">
         <f t="shared" si="16"/>
         <v>622</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5297,14 +5297,14 @@
         <v>2623</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C250" s="3">
         <f t="shared" si="16"/>
         <v>623</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5313,14 +5313,14 @@
         <v>2624</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C251" s="3">
         <f t="shared" si="16"/>
         <v>624</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5329,14 +5329,14 @@
         <v>2625</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C252" s="3">
         <f t="shared" si="16"/>
         <v>625</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5345,14 +5345,14 @@
         <v>2626</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C253" s="3">
         <f t="shared" si="16"/>
         <v>626</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5361,14 +5361,14 @@
         <v>2627</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C254" s="3">
         <f t="shared" si="16"/>
         <v>627</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5377,14 +5377,14 @@
         <v>2628</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C255" s="3">
         <f t="shared" si="16"/>
         <v>628</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5393,14 +5393,14 @@
         <v>2629</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C256" s="3">
         <f t="shared" si="16"/>
         <v>629</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5409,14 +5409,14 @@
         <v>2630</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C257" s="3">
         <f t="shared" si="16"/>
         <v>630</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,14 +5425,14 @@
         <v>2631</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C258" s="3">
         <f t="shared" si="16"/>
         <v>631</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5441,14 +5441,14 @@
         <v>2632</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C259" s="3">
         <f t="shared" si="16"/>
         <v>632</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,14 +5463,14 @@
         <v>2650</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C261" s="3">
         <f>C227+50</f>
         <v>650</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5479,14 +5479,14 @@
         <v>2651</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C262" s="3">
         <f>C261+1</f>
         <v>651</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,14 +5495,14 @@
         <v>2652</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C263" s="3">
         <f t="shared" ref="C263:C272" si="18">C262+1</f>
         <v>652</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5511,14 +5511,14 @@
         <v>2653</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C264" s="3">
         <f t="shared" si="18"/>
         <v>653</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5527,14 +5527,14 @@
         <v>2654</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C265" s="3">
         <f t="shared" si="18"/>
         <v>654</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5543,14 +5543,14 @@
         <v>2655</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C266" s="3">
         <f t="shared" si="18"/>
         <v>655</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5559,14 +5559,14 @@
         <v>2656</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C267" s="3">
         <f t="shared" si="18"/>
         <v>656</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5575,14 +5575,14 @@
         <v>2657</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C268" s="3">
         <f t="shared" si="18"/>
         <v>657</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5591,14 +5591,14 @@
         <v>2658</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C269" s="3">
         <f t="shared" si="18"/>
         <v>658</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5607,14 +5607,14 @@
         <v>2659</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C270" s="3">
         <f t="shared" si="18"/>
         <v>659</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,14 +5623,14 @@
         <v>2660</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C271" s="3">
         <f t="shared" si="18"/>
         <v>660</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,14 +5639,14 @@
         <v>2661</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C272" s="3">
         <f t="shared" si="18"/>
         <v>661</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
